--- a/ig/ch-epl/StructureDefinition-ch-epl-organization.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-epl-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -527,7 +527,7 @@
     <t>LocID</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-epl/StructureDefinition/ch-core-loc-identifier}
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-epl/StructureDefinition/ch-smc-loc-identifier}
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -738,7 +738,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -757,7 +757,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|5.0.0)
 </t>
   </si>
   <si>
@@ -1217,7 +1217,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.43359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.55859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
